--- a/Documents/Serial Debug Protocol/Serial Debug Protocol.xlsx
+++ b/Documents/Serial Debug Protocol/Serial Debug Protocol.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="205">
   <si>
     <t>Baudrate</t>
   </si>
@@ -226,7 +226,7 @@
     <t>Instantaneous Input Current OCP Counter</t>
   </si>
   <si>
-    <t>RMS Input Current Out of Range Counter</t>
+    <t>RMS Input Current OCP Counter</t>
   </si>
   <si>
     <t>Ambient OTP Counter</t>
@@ -286,6 +286,9 @@
     <t>Open Loop PFC LF Leg Duty Cycle</t>
   </si>
   <si>
+    <t>uint33</t>
+  </si>
+  <si>
     <t>Bus Voltage Setpoint</t>
   </si>
   <si>
@@ -328,7 +331,10 @@
     <t>Shelf ID</t>
   </si>
   <si>
-    <t>Output Voltage</t>
+    <t>Output Voltage 1</t>
+  </si>
+  <si>
+    <t>Output Voltage 2</t>
   </si>
   <si>
     <t>Output Current</t>
@@ -343,216 +349,228 @@
     <t>Output Current External Setpoint</t>
   </si>
   <si>
+    <t>Output Voltage 1 Raw</t>
+  </si>
+  <si>
+    <t>Output Voltage 2 Raw</t>
+  </si>
+  <si>
+    <t>Output Current Raw</t>
+  </si>
+  <si>
+    <t>LLC Secondary Heatsink 1 Temperature Raw</t>
+  </si>
+  <si>
+    <t>LLC Secondary Heatsink 2 Temperature Raw</t>
+  </si>
+  <si>
+    <t>Output Current External Setpoint Raw</t>
+  </si>
+  <si>
+    <t>Output Voltage HW OVP Counter</t>
+  </si>
+  <si>
+    <t>Output Voltage SW OVP Counter</t>
+  </si>
+  <si>
+    <t>Output Current HW OCP Counter</t>
+  </si>
+  <si>
+    <t>Output Current SW OCP Counter</t>
+  </si>
+  <si>
+    <t>LLC Secondary Heatsink 1 OTP Counter</t>
+  </si>
+  <si>
+    <t>LLC Secondary Heatsink 2 OTP Counter</t>
+  </si>
+  <si>
+    <t>Interlock Fault Counter</t>
+  </si>
+  <si>
+    <t>PFC Fault</t>
+  </si>
+  <si>
+    <t>Open Loop Primary Enable</t>
+  </si>
+  <si>
+    <t>Open Loop SR Enable</t>
+  </si>
+  <si>
+    <t>Open Loop OR-ing FET Enable</t>
+  </si>
+  <si>
+    <t>Open Loop Active Dummy Load Enable</t>
+  </si>
+  <si>
+    <t>Open Loop Primary Frequency</t>
+  </si>
+  <si>
+    <t>Open Loop SR Duty Cycle</t>
+  </si>
+  <si>
+    <t>Output Voltage Setpoint</t>
+  </si>
+  <si>
+    <t>Output Voltage Slope</t>
+  </si>
+  <si>
+    <t>Output Voltage Offset</t>
+  </si>
+  <si>
+    <t>Output Current Slope</t>
+  </si>
+  <si>
+    <t>Output Current Offset</t>
+  </si>
+  <si>
+    <t>Input Voltage</t>
+  </si>
+  <si>
+    <t>Input Current 1</t>
+  </si>
+  <si>
+    <t>Input Current 2</t>
+  </si>
+  <si>
+    <t>Bus Voltage LLC 1</t>
+  </si>
+  <si>
+    <t>Bus Voltage LLC 2</t>
+  </si>
+  <si>
+    <t>Output Current LLC 1</t>
+  </si>
+  <si>
+    <t>Output Current LLC 2</t>
+  </si>
+  <si>
+    <t>LLC Primary Heatsink 1 Temperature</t>
+  </si>
+  <si>
+    <t>LLC Primary Heatsink 2 Temperature</t>
+  </si>
+  <si>
+    <t>Output Voltage External Setpoint</t>
+  </si>
+  <si>
+    <t>Input Current 1 Raw</t>
+  </si>
+  <si>
+    <t>Input Current 2 Raw</t>
+  </si>
+  <si>
+    <t>Bus Voltage LLC 1 Raw</t>
+  </si>
+  <si>
+    <t>Bus Voltage LLC 2 Raw</t>
+  </si>
+  <si>
+    <t>Output Current LLC 1 Raw</t>
+  </si>
+  <si>
+    <t>Output Current LLC 2 Raw</t>
+  </si>
+  <si>
+    <t>LLC Primary Heatsink 1 Temperature Raw</t>
+  </si>
+  <si>
+    <t>LLC Primary Heatsink 2 Temperature Raw</t>
+  </si>
+  <si>
+    <t>Output Voltage External Setpoint Raw</t>
+  </si>
+  <si>
+    <t>Input Voltage UVP Counter</t>
+  </si>
+  <si>
+    <t>Input Current 1 OCP Counter</t>
+  </si>
+  <si>
+    <t>Input Current 2 OCP Counter</t>
+  </si>
+  <si>
+    <t>Bus Voltage LLC 1 OVP Counter</t>
+  </si>
+  <si>
+    <t>Bus Voltage LLC 2 OVP Counter</t>
+  </si>
+  <si>
+    <t>Output Current LLC 1 OCP Counter</t>
+  </si>
+  <si>
+    <t>Output Current LLC 2 OCP Counter</t>
+  </si>
+  <si>
+    <t>LLC Primary Heatsink 1 OTP Counter</t>
+  </si>
+  <si>
+    <t>LLC Primary Heatsink 2 OTP Counter</t>
+  </si>
+  <si>
+    <t>Open Loop Inrush Relay Enable</t>
+  </si>
+  <si>
+    <t>Input Voltage Slope</t>
+  </si>
+  <si>
+    <t>Input Voltage Offset</t>
+  </si>
+  <si>
+    <t>Input Current 1 Slope</t>
+  </si>
+  <si>
+    <t>Input Current 1 Offset</t>
+  </si>
+  <si>
+    <t>Input Current 2 Slope</t>
+  </si>
+  <si>
+    <t>Input Current 2 Offset</t>
+  </si>
+  <si>
+    <t>Bus Voltage LLC 1 Slope</t>
+  </si>
+  <si>
+    <t>Bus Voltage LLC 1 Offset</t>
+  </si>
+  <si>
+    <t>Bus Voltage LLC 2 Slope</t>
+  </si>
+  <si>
+    <t>Bus Voltage LLC 2 Offset</t>
+  </si>
+  <si>
+    <t>Output Current LLC 1 Slope</t>
+  </si>
+  <si>
+    <t>Output Current LLC 1 Offset</t>
+  </si>
+  <si>
+    <t>Output Current LLC 2 Slope</t>
+  </si>
+  <si>
+    <t>Output Current LLC 2 Offset</t>
+  </si>
+  <si>
+    <t>Output Voltage RMS</t>
+  </si>
+  <si>
+    <t>Output Current RMS</t>
+  </si>
+  <si>
+    <t>Inverter Heatsink 1 Termperature</t>
+  </si>
+  <si>
+    <t>Inverter Heatsink 2 Termperature</t>
+  </si>
+  <si>
+    <t>Output Frequency</t>
+  </si>
+  <si>
     <t>Output Voltage Raw</t>
   </si>
   <si>
-    <t>Output Current Raw</t>
-  </si>
-  <si>
-    <t>LLC Secondary Heatsink 1 Temperature Raw</t>
-  </si>
-  <si>
-    <t>LLC Secondary Heatsink 2 Temperature Raw</t>
-  </si>
-  <si>
-    <t>Output Current External Setpoint Raw</t>
-  </si>
-  <si>
-    <t>Output Voltage OVP Counter</t>
-  </si>
-  <si>
-    <t>Output Current OCP Counter</t>
-  </si>
-  <si>
-    <t>LLC Secondary Heatsink 1 OTP Counter</t>
-  </si>
-  <si>
-    <t>LLC Secondary Heatsink 2 OTP Counter</t>
-  </si>
-  <si>
-    <t>Interlock Fault Counter</t>
-  </si>
-  <si>
-    <t>PFC Fault</t>
-  </si>
-  <si>
-    <t>Open Loop Primary Enable</t>
-  </si>
-  <si>
-    <t>Open Loop SR Enable</t>
-  </si>
-  <si>
-    <t>Open Loop OR-ing FET Enable</t>
-  </si>
-  <si>
-    <t>Open Loop Active Dummy Load Enable</t>
-  </si>
-  <si>
-    <t>Open Loop Primary Duty Cycle</t>
-  </si>
-  <si>
-    <t>Open Loop SR Duty Cycle</t>
-  </si>
-  <si>
-    <t>Output Voltage Setpoint</t>
-  </si>
-  <si>
-    <t>Output Voltage Slope</t>
-  </si>
-  <si>
-    <t>Output Voltage Offset</t>
-  </si>
-  <si>
-    <t>Output Current Slope</t>
-  </si>
-  <si>
-    <t>Output Current Offset</t>
-  </si>
-  <si>
-    <t>Input Voltage</t>
-  </si>
-  <si>
-    <t>Input Current 1</t>
-  </si>
-  <si>
-    <t>Input Current 2</t>
-  </si>
-  <si>
-    <t>Bus Voltage LLC 1</t>
-  </si>
-  <si>
-    <t>Bus Voltage LLC 2</t>
-  </si>
-  <si>
-    <t>Output Current LLC 1</t>
-  </si>
-  <si>
-    <t>Output Current LLC 2</t>
-  </si>
-  <si>
-    <t>LLC Primary Heatsink 1 Temperature</t>
-  </si>
-  <si>
-    <t>LLC Primary Heatsink 2 Temperature</t>
-  </si>
-  <si>
-    <t>Output Voltage External Setpoint</t>
-  </si>
-  <si>
-    <t>Input Current 1 Raw</t>
-  </si>
-  <si>
-    <t>Input Current 2 Raw</t>
-  </si>
-  <si>
-    <t>Bus Voltage LLC 1 Raw</t>
-  </si>
-  <si>
-    <t>Bus Voltage LLC 2 Raw</t>
-  </si>
-  <si>
-    <t>Output Current LLC 1 Raw</t>
-  </si>
-  <si>
-    <t>Output Current LLC 2 Raw</t>
-  </si>
-  <si>
-    <t>LLC Primary Heatsink 1 Temperature Raw</t>
-  </si>
-  <si>
-    <t>LLC Primary Heatsink 2 Temperature Raw</t>
-  </si>
-  <si>
-    <t>Output Voltage External Setpoint Raw</t>
-  </si>
-  <si>
-    <t>Input Voltage UVP Counter</t>
-  </si>
-  <si>
-    <t>Input Current 1 OCP Counter</t>
-  </si>
-  <si>
-    <t>Input Current 2 OCP Counter</t>
-  </si>
-  <si>
-    <t>Bus Voltage LLC 1 OVP Counter</t>
-  </si>
-  <si>
-    <t>Bus Voltage LLC 2 OVP Counter</t>
-  </si>
-  <si>
-    <t>Output Current LLC 1 OCP Counter</t>
-  </si>
-  <si>
-    <t>Output Current LLC 2 OCP Counter</t>
-  </si>
-  <si>
-    <t>LLC Primary Heatsink 1 OTP Counter</t>
-  </si>
-  <si>
-    <t>LLC Primary Heatsink 2 OTP Counter</t>
-  </si>
-  <si>
-    <t>Open Loop Inrush Relay Enable</t>
-  </si>
-  <si>
-    <t>Input Voltage Slope</t>
-  </si>
-  <si>
-    <t>Input Voltage Offset</t>
-  </si>
-  <si>
-    <t>Input Current 1 Slope</t>
-  </si>
-  <si>
-    <t>Input Current 1 Offset</t>
-  </si>
-  <si>
-    <t>Input Current 2 Slope</t>
-  </si>
-  <si>
-    <t>Input Current 2 Offset</t>
-  </si>
-  <si>
-    <t>Bus Voltage LLC 1 Slope</t>
-  </si>
-  <si>
-    <t>Bus Voltage LLC 1 Offset</t>
-  </si>
-  <si>
-    <t>Bus Voltage LLC 2 Slope</t>
-  </si>
-  <si>
-    <t>Bus Voltage LLC 2 Offset</t>
-  </si>
-  <si>
-    <t>Output Current LLC 1 Slope</t>
-  </si>
-  <si>
-    <t>Output Current LLC 1 Offset</t>
-  </si>
-  <si>
-    <t>Output Current LLC 2 Slope</t>
-  </si>
-  <si>
-    <t>Output Current LLC 2 Offset</t>
-  </si>
-  <si>
-    <t>Output Voltage RMS</t>
-  </si>
-  <si>
-    <t>Output Current RMS</t>
-  </si>
-  <si>
-    <t>Inverter Heatsink 1 Termperature</t>
-  </si>
-  <si>
-    <t>Inverter Heatsink 2 Termperature</t>
-  </si>
-  <si>
-    <t>Output Frequency</t>
-  </si>
-  <si>
     <t>Inverter Heatsink 1 Termperature Raw</t>
   </si>
   <si>
@@ -593,6 +611,9 @@
   </si>
   <si>
     <t>RMS Output Voltage Setpoint</t>
+  </si>
+  <si>
+    <t>Output Phase</t>
   </si>
   <si>
     <t>Output Voltage RMS Slope</t>
@@ -638,7 +659,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +682,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -756,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -805,10 +832,19 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1746,6 +1782,12 @@
       <c r="E6" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="F6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H6" s="5" t="s">
         <v>37</v>
       </c>
@@ -1769,6 +1811,12 @@
       <c r="E7" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="F7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H7" s="5" t="s">
         <v>37</v>
       </c>
@@ -1792,6 +1840,12 @@
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="F8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1931,6 +1985,12 @@
       <c r="E13" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H13" s="5" t="s">
         <v>37</v>
       </c>
@@ -1952,6 +2012,12 @@
         <v>55</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -1975,6 +2041,21 @@
       <c r="D16" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="E16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4095.0</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
@@ -1986,6 +2067,21 @@
       <c r="D17" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="E17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4095.0</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
@@ -1997,6 +2093,21 @@
       <c r="D18" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="E18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>4095.0</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
@@ -2008,6 +2119,21 @@
       <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="E19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>4095.0</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
@@ -2019,6 +2145,21 @@
       <c r="D20" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="E20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>4095.0</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
@@ -2030,6 +2171,21 @@
       <c r="D21" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="E21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>4095.0</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="22" t="s">
@@ -2041,6 +2197,21 @@
       <c r="D22" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="E22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>4095.0</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="22" t="s">
@@ -2052,15 +2223,30 @@
       <c r="D23" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="E23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>4095.0</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="5">
         <v>20.0</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2086,13 +2272,13 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>21.0</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2118,13 +2304,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="5">
         <v>22.0</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -2145,18 +2331,18 @@
       <c r="I27" s="5">
         <v>1.0</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="5">
         <v>23.0</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2177,18 +2363,18 @@
       <c r="I28" s="5">
         <v>1.0</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="5">
         <v>24.0</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2209,18 +2395,18 @@
       <c r="I29" s="5">
         <v>1.0</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="5">
         <v>25.0</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -2241,18 +2427,18 @@
       <c r="I30" s="5">
         <v>1.0</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="5">
         <v>26.0</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2273,18 +2459,18 @@
       <c r="I31" s="5">
         <v>1.0</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="5">
         <v>27.0</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2305,18 +2491,18 @@
       <c r="I32" s="5">
         <v>1.0</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="5">
         <v>28.0</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -2337,18 +2523,18 @@
       <c r="I33" s="5">
         <v>1.0</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="5">
         <v>29.0</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2369,39 +2555,39 @@
       <c r="I34" s="5">
         <v>1.0</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="5">
         <v>30.0</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="J35" s="23" t="s">
+      <c r="D35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2409,7 +2595,7 @@
       <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="5">
         <v>40.0</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -2433,7 +2619,7 @@
       <c r="I37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="J37" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2441,7 +2627,7 @@
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="5">
         <v>41.0</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2470,7 +2656,7 @@
       <c r="A39" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="5">
         <v>42.0</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -2496,10 +2682,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="5">
         <v>43.0</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2511,10 +2697,10 @@
       <c r="E40" s="5">
         <v>0.0</v>
       </c>
-      <c r="F40" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G40" s="23">
+      <c r="F40" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G40" s="5">
         <v>1.0</v>
       </c>
       <c r="H40" s="5" t="s">
@@ -2525,10 +2711,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="23">
+      <c r="A41" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="5">
         <v>44.0</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2540,10 +2726,10 @@
       <c r="E41" s="5">
         <v>0.0</v>
       </c>
-      <c r="F41" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G41" s="23">
+      <c r="F41" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G41" s="5">
         <v>1.0</v>
       </c>
       <c r="H41" s="5" t="s">
@@ -2554,10 +2740,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="23">
+      <c r="A42" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="5">
         <v>45.0</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -2569,10 +2755,10 @@
       <c r="E42" s="5">
         <v>0.0</v>
       </c>
-      <c r="F42" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G42" s="23">
+      <c r="F42" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G42" s="5">
         <v>1.0</v>
       </c>
       <c r="H42" s="5" t="s">
@@ -2583,10 +2769,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="23">
+      <c r="A43" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="5">
         <v>46.0</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2598,10 +2784,10 @@
       <c r="E43" s="5">
         <v>1.0</v>
       </c>
-      <c r="F43" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G43" s="23">
+      <c r="F43" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G43" s="5">
         <v>1.0</v>
       </c>
       <c r="H43" s="5" t="s">
@@ -2612,10 +2798,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="23">
+      <c r="A44" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="5">
         <v>47.0</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2641,14 +2827,29 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="22" t="s">
-        <v>25</v>
+      <c r="A45" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>87</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="47">
@@ -2656,7 +2857,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>42</v>
@@ -2670,7 +2871,7 @@
         <v>51.0</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>36</v>
@@ -2699,7 +2900,7 @@
         <v>52.0</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>36</v>
@@ -2728,7 +2929,7 @@
         <v>100.0</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>36</v>
@@ -2745,7 +2946,7 @@
         <v>1.0</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52">
@@ -2756,10 +2957,10 @@
         <v>101.0</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E52" s="5">
         <v>1.0</v>
@@ -2788,7 +2989,7 @@
         <v>102.0</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>42</v>
@@ -2820,10 +3021,10 @@
         <v>103.0</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E54" s="5">
         <v>1.0</v>
@@ -2852,7 +3053,7 @@
         <v>104.0</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>45</v>
@@ -2878,7 +3079,7 @@
     </row>
     <row r="57">
       <c r="C57" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2967,24 +3168,62 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="5">
         <v>2.0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2992,386 +3231,986 @@
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="B5" s="5">
+        <v>3.0</v>
+      </c>
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="B6" s="5">
+        <v>4.0</v>
+      </c>
       <c r="C6" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="5">
+        <v>100.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="B9" s="5">
+        <v>12.0</v>
+      </c>
       <c r="C9" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="5">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="B10" s="5">
+        <v>13.0</v>
+      </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="E10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="5">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="B11" s="5">
+        <v>14.0</v>
+      </c>
       <c r="C11" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="E11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-25.0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>140.0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="5">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="B12" s="5">
+        <v>15.0</v>
+      </c>
       <c r="C12" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="E12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-25.0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>140.0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="5">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="B13" s="5">
+        <v>16.0</v>
+      </c>
       <c r="C13" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="E13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="5">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="D14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>4095.0</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="E16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4095.0</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="E17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4095.0</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="E18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>4095.0</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>36</v>
+      <c r="E19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>4095.0</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>4095.0</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>114</v>
+      <c r="B22" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="E22" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>36</v>
+      <c r="A23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>116</v>
+      <c r="B24" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="E24" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>36</v>
+      <c r="A25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="B26" s="5">
+        <v>24.0</v>
+      </c>
       <c r="C26" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="E26" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="27">
-      <c r="C27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>36</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="E29" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="C30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="B31" s="5">
+        <v>40.0</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>36</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>25</v>
+        <v>79</v>
+      </c>
+      <c r="B32" s="5">
+        <v>41.0</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="5">
+        <v>42.0</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="5">
+        <v>43.0</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="5">
+        <v>44.0</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="5">
+        <v>46.0</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="5">
+        <v>47.0</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="5">
+        <v>250000.0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>90000.0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>250000.0</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="23">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="B42" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>36</v>
+      <c r="E42" s="5">
+        <v>54.0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>100.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B43" s="5">
-        <v>100.0</v>
+        <v>51.0</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+        <v>1.0</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H43" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I43" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>93</v>
+        <v>65536.0</v>
       </c>
     </row>
     <row r="44">
@@ -3379,22 +4218,22 @@
         <v>25</v>
       </c>
       <c r="B44" s="5">
-        <v>101.0</v>
+        <v>52.0</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E44" s="5">
         <v>1.0</v>
       </c>
-      <c r="F44" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1.1</v>
+      <c r="F44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>48</v>
@@ -3402,72 +4241,33 @@
       <c r="I44" s="5">
         <v>65536.0</v>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="5">
-        <v>102.0</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F45" s="5">
-        <v>-10.0</v>
-      </c>
-      <c r="G45" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I45" s="5">
-        <v>65536.0</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B46" s="5">
-        <v>103.0</v>
+        <v>100.0</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="E46" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F46" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G46" s="5">
-        <v>1.1</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I46" s="5">
-        <v>65536.0</v>
+        <v>1.0</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
@@ -3475,22 +4275,22 @@
         <v>25</v>
       </c>
       <c r="B47" s="5">
-        <v>104.0</v>
+        <v>101.0</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="E47" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F47" s="5">
-        <v>-5.0</v>
+        <v>0.9</v>
       </c>
       <c r="G47" s="5">
-        <v>5.0</v>
+        <v>1.1</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>48</v>
@@ -3499,6 +4299,102 @@
         <v>65536.0</v>
       </c>
       <c r="J47" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="5">
+        <v>102.0</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F48" s="5">
+        <v>-10.0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="5">
+        <v>65536.0</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="5">
+        <v>103.0</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1.1</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" s="5">
+        <v>65536.0</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="5">
+        <v>104.0</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F50" s="5">
+        <v>-5.0</v>
+      </c>
+      <c r="G50" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="5">
+        <v>65536.0</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3625,7 +4521,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>36</v>
@@ -3636,7 +4532,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>36</v>
@@ -3647,7 +4543,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>42</v>
@@ -3658,7 +4554,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>45</v>
@@ -3669,7 +4565,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>45</v>
@@ -3680,7 +4576,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>42</v>
@@ -3691,7 +4587,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>42</v>
@@ -3702,7 +4598,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>45</v>
@@ -3713,7 +4609,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>45</v>
@@ -3724,7 +4620,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>47</v>
@@ -3735,7 +4631,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>47</v>
@@ -3746,7 +4642,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>42</v>
@@ -3771,7 +4667,7 @@
         <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>57</v>
@@ -3782,7 +4678,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>57</v>
@@ -3793,7 +4689,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>57</v>
@@ -3804,7 +4700,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>57</v>
@@ -3815,7 +4711,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>57</v>
@@ -3826,7 +4722,7 @@
         <v>34</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>57</v>
@@ -3837,7 +4733,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>57</v>
@@ -3848,7 +4744,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>57</v>
@@ -3859,7 +4755,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>57</v>
@@ -3870,7 +4766,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>36</v>
@@ -3881,7 +4777,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>36</v>
@@ -3892,7 +4788,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>36</v>
@@ -3903,7 +4799,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>36</v>
@@ -3914,7 +4810,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>36</v>
@@ -3925,7 +4821,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>36</v>
@@ -3936,7 +4832,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>36</v>
@@ -3947,7 +4843,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>36</v>
@@ -3958,7 +4854,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>36</v>
@@ -3969,7 +4865,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>36</v>
@@ -4009,8 +4905,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>25</v>
+      <c r="A45" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>82</v>
@@ -4020,55 +4916,64 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>25</v>
+      <c r="A46" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>25</v>
+      <c r="A47" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="s">
-        <v>25</v>
+      <c r="A48" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="s">
-        <v>25</v>
+      <c r="A49" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>87</v>
+        <v>53</v>
+      </c>
+      <c r="E49" s="5">
+        <v>250000.0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>90000.0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>250000.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="s">
-        <v>25</v>
+      <c r="A50" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>87</v>
@@ -4079,10 +4984,25 @@
         <v>25</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>36</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" s="5">
+        <v>65536.0</v>
       </c>
     </row>
     <row r="53">
@@ -4090,10 +5010,25 @@
         <v>25</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>36</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" s="5">
+        <v>65536.0</v>
       </c>
     </row>
     <row r="55">
@@ -4104,7 +5039,7 @@
         <v>100.0</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>36</v>
@@ -4121,7 +5056,7 @@
         <v>1.0</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56">
@@ -4132,10 +5067,10 @@
         <v>101.0</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E56" s="5">
         <v>1.0</v>
@@ -4164,7 +5099,7 @@
         <v>102.0</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>42</v>
@@ -4196,10 +5131,10 @@
         <v>103.0</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E58" s="5">
         <v>1.0</v>
@@ -4228,7 +5163,7 @@
         <v>104.0</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>45</v>
@@ -4260,10 +5195,10 @@
         <v>105.0</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E60" s="5">
         <v>1.0</v>
@@ -4292,7 +5227,7 @@
         <v>106.0</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>45</v>
@@ -4324,10 +5259,10 @@
         <v>107.0</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62" s="5">
         <v>1.0</v>
@@ -4356,7 +5291,7 @@
         <v>108.0</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>42</v>
@@ -4388,10 +5323,10 @@
         <v>109.0</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" s="5">
         <v>1.0</v>
@@ -4420,7 +5355,7 @@
         <v>110.0</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>42</v>
@@ -4452,10 +5387,10 @@
         <v>111.0</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E66" s="5">
         <v>1.0</v>
@@ -4484,7 +5419,7 @@
         <v>112.0</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>45</v>
@@ -4516,10 +5451,10 @@
         <v>113.0</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E68" s="5">
         <v>1.0</v>
@@ -4548,7 +5483,7 @@
         <v>114.0</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>45</v>
@@ -4706,7 +5641,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>42</v>
@@ -4717,7 +5652,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>45</v>
@@ -4739,7 +5674,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>47</v>
@@ -4750,7 +5685,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>47</v>
@@ -4761,7 +5696,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>47</v>
@@ -4772,7 +5707,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>47</v>
@@ -4794,7 +5729,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>53</v>
@@ -4819,7 +5754,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>57</v>
@@ -4830,7 +5765,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>57</v>
@@ -4852,7 +5787,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>57</v>
@@ -4863,7 +5798,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>57</v>
@@ -4874,7 +5809,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>57</v>
@@ -4885,7 +5820,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>57</v>
@@ -4907,7 +5842,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>36</v>
@@ -4918,7 +5853,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>36</v>
@@ -4929,7 +5864,7 @@
         <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>36</v>
@@ -4940,7 +5875,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>36</v>
@@ -4962,7 +5897,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>36</v>
@@ -4973,7 +5908,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>36</v>
@@ -4984,7 +5919,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>36</v>
@@ -4995,7 +5930,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>36</v>
@@ -5035,8 +5970,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
-        <v>25</v>
+      <c r="A41" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>82</v>
@@ -5046,55 +5981,55 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
-        <v>25</v>
+      <c r="A42" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>25</v>
+      <c r="A43" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
-        <v>25</v>
+      <c r="A44" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>25</v>
+      <c r="A45" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>25</v>
+      <c r="A46" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>87</v>
@@ -5105,7 +6040,7 @@
         <v>25</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>42</v>
@@ -5116,7 +6051,7 @@
         <v>25</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>36</v>
@@ -5127,70 +6062,58 @@
         <v>25</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
+    <row r="51">
+      <c r="A51" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I52" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>93</v>
+      <c r="C51" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G51" s="5">
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B53" s="5">
-        <v>101.0</v>
+        <v>100.0</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E53" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F53" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G53" s="5">
-        <v>1.1</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I53" s="5">
-        <v>65536.0</v>
+        <v>1.0</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54">
@@ -5198,22 +6121,22 @@
         <v>25</v>
       </c>
       <c r="B54" s="5">
-        <v>102.0</v>
+        <v>101.0</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E54" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F54" s="5">
-        <v>-10.0</v>
+        <v>0.9</v>
       </c>
       <c r="G54" s="5">
-        <v>10.0</v>
+        <v>1.1</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>48</v>
@@ -5230,22 +6153,22 @@
         <v>25</v>
       </c>
       <c r="B55" s="5">
-        <v>103.0</v>
+        <v>102.0</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="E55" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F55" s="5">
-        <v>0.9</v>
+        <v>-10.0</v>
       </c>
       <c r="G55" s="5">
-        <v>1.1</v>
+        <v>10.0</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>48</v>
@@ -5262,22 +6185,22 @@
         <v>25</v>
       </c>
       <c r="B56" s="5">
-        <v>104.0</v>
+        <v>103.0</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E56" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F56" s="5">
-        <v>-5.0</v>
+        <v>0.9</v>
       </c>
       <c r="G56" s="5">
-        <v>5.0</v>
+        <v>1.1</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>48</v>
@@ -5294,22 +6217,22 @@
         <v>25</v>
       </c>
       <c r="B57" s="5">
-        <v>105.0</v>
+        <v>104.0</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E57" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" s="5">
-        <v>0.9</v>
+        <v>-5.0</v>
       </c>
       <c r="G57" s="5">
-        <v>1.1</v>
+        <v>5.0</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>48</v>
@@ -5326,22 +6249,22 @@
         <v>25</v>
       </c>
       <c r="B58" s="5">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E58" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F58" s="5">
-        <v>-10.0</v>
+        <v>0.9</v>
       </c>
       <c r="G58" s="5">
-        <v>10.0</v>
+        <v>1.1</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>48</v>
@@ -5350,6 +6273,38 @@
         <v>65536.0</v>
       </c>
       <c r="J58" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="5">
+        <v>106.0</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>-10.0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I59" s="5">
+        <v>65536.0</v>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>40</v>
       </c>
     </row>
